--- a/data/excel/TestOn_FFno_To_BookingFlow.xlsx
+++ b/data/excel/TestOn_FFno_To_BookingFlow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\QuadlabsCoreProject\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EB7F2F-23B2-4E57-8653-55DA951250E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85648ACA-D35B-433A-9AC7-2F027422B105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5449,7 +5449,7 @@
   <dimension ref="A1:CF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6689,8 +6689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18847D3-2EE2-4024-B609-6581D9BB1A11}">
   <dimension ref="A1:CF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/excel/TestOn_FFno_To_BookingFlow.xlsx
+++ b/data/excel/TestOn_FFno_To_BookingFlow.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\QuadlabsCoreProject\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankur.Yadav\git\ProjectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85648ACA-D35B-433A-9AC7-2F027422B105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3A223C-A1E0-4955-B537-769683CD8D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="84" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="85" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="86" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="87" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="89" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="88" r:id="rId6"/>
+    <sheet name="Seatpreference" sheetId="90" r:id="rId5"/>
+    <sheet name="Sheet7" sheetId="92" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="89" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="88" r:id="rId8"/>
+    <sheet name="NonBrandingpreference" sheetId="91" r:id="rId9"/>
+    <sheet name="Testbookingflow" sheetId="93" r:id="rId10"/>
+    <sheet name="Sheet9" sheetId="94" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="235">
   <si>
     <t>del</t>
   </si>
@@ -590,13 +595,169 @@
   </si>
   <si>
     <t>Hotel</t>
+  </si>
+  <si>
+    <t>Preferencetype</t>
+  </si>
+  <si>
+    <t>Lhseat</t>
+  </si>
+  <si>
+    <t>Shseat</t>
+  </si>
+  <si>
+    <t>Seat Preference</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>Aisle</t>
+  </si>
+  <si>
+    <t>Air Asia</t>
+  </si>
+  <si>
+    <t>20-Jun-2024</t>
+  </si>
+  <si>
+    <t>21-Jun-2024</t>
+  </si>
+  <si>
+    <t>Flight Book</t>
+  </si>
+  <si>
+    <t>Bom</t>
+  </si>
+  <si>
+    <t>Chennai,India - Chennai (MAA)</t>
+  </si>
+  <si>
+    <t>Maa</t>
+  </si>
+  <si>
+    <t>Verify Seat Preference-Profile sync with LCC-Domestic.</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Dubai,United Arab Emirates - Dubai (DXB)</t>
+  </si>
+  <si>
+    <t>Dxb</t>
+  </si>
+  <si>
+    <t>14-Jun-2024</t>
+  </si>
+  <si>
+    <t>Verify Seat Preference-Profile sync with GDS-International(one Way).</t>
+  </si>
+  <si>
+    <t>Verify Seat Preference-Profile sync with GDS-International(Round Trip).</t>
+  </si>
+  <si>
+    <t>Economy Saver</t>
+  </si>
+  <si>
+    <t>Verify Seat Preference-Profile sync with GDS-Domestic(One Way).</t>
+  </si>
+  <si>
+    <t>Verify Seat Preference-Profile sync with GDS-Domestic(Round Trip).</t>
+  </si>
+  <si>
+    <t>27-May-2024</t>
+  </si>
+  <si>
+    <t>18-Jun-2024</t>
+  </si>
+  <si>
+    <t>25-Jun-2024</t>
+  </si>
+  <si>
+    <t>19-Jun-2024</t>
+  </si>
+  <si>
+    <t>26-Jun-2024</t>
+  </si>
+  <si>
+    <t>Verify Seat Preference-Profile sync with LCC-International.</t>
+  </si>
+  <si>
+    <t>31-May-2024</t>
+  </si>
+  <si>
+    <t>Indigo</t>
+  </si>
+  <si>
+    <t>10-May-2024</t>
+  </si>
+  <si>
+    <t>29-May-2024</t>
+  </si>
+  <si>
+    <t>Ankur</t>
+  </si>
+  <si>
+    <t>13-Jun-2024</t>
+  </si>
+  <si>
+    <t>17-Jun-2024</t>
+  </si>
+  <si>
+    <t>Vikrant prajapati</t>
+  </si>
+  <si>
+    <t>Vikrant.prajapati@quadlabs.com</t>
+  </si>
+  <si>
+    <t>pramod.kumar@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Ashish Topwal</t>
+  </si>
+  <si>
+    <t>Verify Booking flow -International(Round Trip).</t>
+  </si>
+  <si>
+    <t>Laxmi.khanal@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Laxmi Khanal</t>
+  </si>
+  <si>
+    <t>Verify Booking flow-Domestic(One Way).</t>
+  </si>
+  <si>
+    <t>sahilyadavmp@gmail.com</t>
+  </si>
+  <si>
+    <t>Verify Booking flow- Domestic(Round Trip).</t>
+  </si>
+  <si>
+    <t>24-Jun-2024</t>
+  </si>
+  <si>
+    <t>28-Jun-2024</t>
+  </si>
+  <si>
+    <t>Verify Booking flow -International(One Way).</t>
+  </si>
+  <si>
+    <t>Verify Booking flow- Domestic(One Way).</t>
+  </si>
+  <si>
+    <t>27-Jun-2024</t>
+  </si>
+  <si>
+    <t>12-Jun-2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,6 +801,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -708,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -770,6 +937,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3023,6 +3191,3325 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD58D4F-25CC-47DA-9F4E-DED83D0791D4}">
+  <dimension ref="A1:CI6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="BA11" sqref="BA11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="39" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="BI1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="BM1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="BO1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="BQ1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BS1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BX1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BY1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="CB1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="CC1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="CD1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="CE1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="CF1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="CG1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI1" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG2" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BG2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BH2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN2" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO2" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP2" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR2" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX2" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB2" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE2" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="1">
+        <v>3</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG3" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL3" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO3" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BF3" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BG3" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN3" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP3" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB3" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE3" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI3" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="1">
+        <v>3</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X4" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG4" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL4" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN4" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF4" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BG4" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN4" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO4" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP4" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX4" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB4" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE4" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI4" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG5" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN5" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP5" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN5" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP5" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR5" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX5" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE5" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI5" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X6" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG6" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN6" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO6" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP6" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="AQ6" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BF6" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG6" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO6" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP6" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR6" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX6" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB6" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE6" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI6" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z6" xr:uid="{10ACF27C-C458-4708-8280-5E3F599AE7A6}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar,Ayushi Shivhare,Vikrant prajapati,Ashish Topwal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X6" xr:uid="{FFAEAD5D-C3B7-497F-B543-AC8590CF3A20}">
+      <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com,ayushi.shivhare@quadlabs.com,Vikrant.prajapati@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CI2:CI6" xr:uid="{62A99096-718F-4002-BE7F-6A4ABFF06B70}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar,L K Khanal,Ayushi shivhare,Vikrant prajapati"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK6" xr:uid="{303F5BDA-F122-4A8D-8961-429C78FEC32C}">
+      <formula1>"Flight,Hotel,Flight+Hotel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V6" xr:uid="{259F1482-E3E8-4D19-8E12-4E1C44C4C602}">
+      <formula1>"Normal,SSO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W6" xr:uid="{CAADE74A-1B3D-4C73-826E-BB2C2E406013}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB6" xr:uid="{FADEE3EB-F9DA-4649-B341-DF30EA4AE072}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO6" xr:uid="{CFC000AF-0DAB-46D6-A868-C41984E1741D}">
+      <formula1>"Business trip  - Without reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6 BD2:BE6" xr:uid="{2E6F3581-463F-4B1F-B76D-0BCE7E05626C}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE6" xr:uid="{5B8306BB-2B5F-4834-861D-E873F207F1D8}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CE2:CE6 AZ2:AZ6 BC2:BC6" xr:uid="{59349D37-493A-4E3A-B85E-9C4FFF4EBE58}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CD2:CD6" xr:uid="{58331BBB-9EBB-4D4B-8FBA-0DD378E3E611}">
+      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY6" xr:uid="{88B44D2E-ABE8-41AC-9474-246E78DB1439}">
+      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA6" xr:uid="{88074B91-525A-4E55-AE0F-2F8F79C84EE1}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U6" xr:uid="{1F0BB36C-58C7-4EC9-B3CC-081DD95577EB}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR6 CA2:CA6 R2:R6" xr:uid="{757E083B-82B8-4184-B5C4-B852BFECA5C5}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD6" xr:uid="{C2500C03-4434-47A5-B118-2878994724CC}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AW6" xr:uid="{E0A19048-732A-4A8F-8CD2-B537071D5C70}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB6" xr:uid="{F1A7FD6D-3747-4483-9AC0-86F7EADEBB70}">
+      <formula1>"0,1,2,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BW2:BW6" xr:uid="{301D83CA-67C9-448B-ADDA-6E8FE5ABCD72}">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH6" xr:uid="{8037846E-8832-45AD-AD9B-500A07C23AA7}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI6" xr:uid="{DEDD8373-1D21-4B47-AC10-CF73E36D2AEE}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2:AJ6" xr:uid="{AC668CD5-B07B-437E-B9C2-FC3B138691B9}">
+      <formula1>"OneWay,RoundTrip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS6 S2:S6" xr:uid="{E20B4F16-3C7B-4B29-96BB-973122F97164}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA6" xr:uid="{3AB4F9B6-154D-4EA3-9673-C49F5AF99074}">
+      <formula1>"InPolicy,OutPolicy,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF6" xr:uid="{5718CDAD-9250-4D21-A54F-B3F741446313}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{E24FFAF7-A747-419B-840F-91501CEB1F87}">
+      <formula1>"//staging117/backoffice/,//preprod.quadlabs.net/backoffice/,//test.quadlabs.net/backoffice/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{6F91D832-346B-42E3-83AD-C81238BBE18F}">
+      <formula1>"at,QL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{74D8F9AA-AEDD-48A0-8AF6-F4396FD7DD93}">
+      <formula1>"Saurav_at,tarun"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT6" xr:uid="{760D7555-B1CA-43DC-A222-1436F280905D}">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU6" xr:uid="{5AF6681F-9D9F-4DDB-B45A-6F372EB2BE75}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{1736A5A3-C29A-41BC-877C-ED9C898C6AB4}">
+      <formula1>"sbt,preprod117,Live"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC6" xr:uid="{3AFAC1CF-946C-41C2-BBB1-4BE2459AEDA2}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{CA2023C2-E51F-4F4D-8FC1-DD52BACF7C7C}">
+      <formula1>"Laxmi@123,Password@123,Quad@720,Quad@721,Password@1234,Admin@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2:BG6" xr:uid="{2D78A32C-C8E5-49D6-9D3A-251DAED3E2F7}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{B9EA7497-A0FE-4F2B-9632-F648A7AE626D}">
+      <formula1>"FFN or Loyality,Seat Preference"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:L6" xr:uid="{280AA69E-013A-4D43-AFAF-6E2661C99D53}">
+      <formula1>"Window,Aisle"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6" xr:uid="{90A616D8-7578-413C-B452-5D68B938F6C9}">
+      <formula1>"Amazon,Exxon"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG6" xr:uid="{D0F4A0DF-2569-4852-8F15-1F014C98A2A9}">
+      <formula1>"prince.chaurasia@quadlabs.com,ayushi.shivhare@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com,sahilyadavmp@gmail.com"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="AC5" r:id="rId1" display="Admin@123" xr:uid="{45357E20-3A1C-455F-9068-0F3B6394E821}"/>
+    <hyperlink ref="G5" r:id="rId2" display="Password@123" xr:uid="{943EB2EF-EED7-4DD0-950B-38D9F2BE5CEF}"/>
+    <hyperlink ref="F5" r:id="rId3" display="shubham.natkar@quadlabs.com" xr:uid="{2834C702-B57E-4600-AAEB-357343616758}"/>
+    <hyperlink ref="AC4" r:id="rId4" display="Admin@123" xr:uid="{FB65A9DE-1C57-459F-9A3F-A3D849DA4A17}"/>
+    <hyperlink ref="G4" r:id="rId5" display="Password@123" xr:uid="{A9BD164E-E474-4233-AB77-8430E0F75FEE}"/>
+    <hyperlink ref="F4" r:id="rId6" display="shubham.natkar@quadlabs.com" xr:uid="{A1C79722-0DF0-4F82-9181-6BA1D51CB175}"/>
+    <hyperlink ref="X2" r:id="rId7" display="shekhar.singh@quadlabs.com" xr:uid="{15ADFD5B-AF34-4FDF-A5DE-5E7CC0414A00}"/>
+    <hyperlink ref="AC2" r:id="rId8" display="Admin@123" xr:uid="{10CC84B6-6984-4254-8820-7BB60DCAAE4D}"/>
+    <hyperlink ref="G2" r:id="rId9" display="Password@123" xr:uid="{67462531-B446-49DA-894E-38E26EBE9211}"/>
+    <hyperlink ref="F2" r:id="rId10" display="shubham.natkar@quadlabs.com" xr:uid="{EB3AE2DB-3692-4A1A-B80A-93E481F81680}"/>
+    <hyperlink ref="AC3" r:id="rId11" display="Admin@123" xr:uid="{C300425A-6770-4F18-B0D0-2A69D879D729}"/>
+    <hyperlink ref="G3" r:id="rId12" display="Password@123" xr:uid="{767566A1-D666-4F99-A809-E8FBE2600177}"/>
+    <hyperlink ref="F3" r:id="rId13" display="shubham.natkar@quadlabs.com" xr:uid="{C651AAEC-8368-4854-A242-085881A4E701}"/>
+    <hyperlink ref="AC6" r:id="rId14" display="Admin@123" xr:uid="{8B2330FC-8492-4F2B-BCEE-47540B187C81}"/>
+    <hyperlink ref="G6" r:id="rId15" display="Password@123" xr:uid="{6956323D-1554-411B-8060-595F885555D2}"/>
+    <hyperlink ref="F6" r:id="rId16" display="shubham.natkar@quadlabs.com" xr:uid="{F2E871B4-2E3B-4961-B4A2-E073C216EE13}"/>
+    <hyperlink ref="X3:X6" r:id="rId17" display="shekhar.singh@quadlabs.com" xr:uid="{D73240BF-599F-4932-9B3F-377967D15801}"/>
+    <hyperlink ref="AG2" r:id="rId18" display="ajit.kumar@quadlabs.com" xr:uid="{496E3748-6ACE-40DC-ACCA-C4D7C82DEF81}"/>
+    <hyperlink ref="AG3:AG6" r:id="rId19" display="ajit.kumar@quadlabs.com" xr:uid="{FA887132-125F-4D78-85A7-9B4B31B8DCEE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DCD699-C993-40E4-A20B-56CE7FEA6EE2}">
+  <dimension ref="A1:BT6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AT16" sqref="AT16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="41.5703125" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BG1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BH1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="BN1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="BO1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT1" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY2" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ2" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA2" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC2" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>123</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM2" s="5">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP2" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY3" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA3" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC3" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>123</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM3" s="5">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP3" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY4" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ4" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA4" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BB4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC4" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>123</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM4" s="5">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP4" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT4" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY5" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA5" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC5" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI5" s="3">
+        <v>123</v>
+      </c>
+      <c r="BJ5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM5" s="5">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP5" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT5" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO6" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ6" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR6" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ6" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA6" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BB6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC6" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI6" s="3">
+        <v>123</v>
+      </c>
+      <c r="BJ6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM6" s="5">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP6" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT6" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R6" xr:uid="{7F6421AD-AB32-4E9B-AA25-7B4593BE5E40}">
+      <formula1>"prince.chaurasia@quadlabs.com,ayushi.shivhare@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com,sahilyadavmp@gmail.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6" xr:uid="{8B7B8F23-BDF6-4A51-8FAF-0A5BF64A5C9D}">
+      <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com,ayushi.shivhare@quadlabs.com,Vikrant.prajapati@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{BF7FD936-520E-465D-ADBE-11097964CC15}">
+      <formula1>"Normal,SSO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6" xr:uid="{913EC755-48FA-4800-8119-60F1CF95CD39}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6" xr:uid="{20209665-9617-4E0D-8B74-13A535152103}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT6 K2:K6" xr:uid="{952CA446-3DF0-4ABF-9B8B-EC561FD98096}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z6" xr:uid="{FEDD432C-17BF-4C27-A671-D337045C6EA9}">
+      <formula1>"Business trip  - Without reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AP6" xr:uid="{6FA84C1A-3CED-4BE0-A422-AC35433ACA0E}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P6" xr:uid="{08A9F555-8606-465F-9BCB-E72ED4E4EE04}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2:AN6 AK2:AK6 BP2:BP6" xr:uid="{E5D10C55-4C88-45A2-8EA9-F3E56205CCE0}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO6" xr:uid="{6525BB16-83E9-43B8-9A4A-EF1CA7057CAA}">
+      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ6" xr:uid="{1E9EE2D4-6CCA-4833-A592-40E83D2C73D9}">
+      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6" xr:uid="{B91FDED6-AF44-45B6-925B-3F2271413426}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{A83B3B33-9C8E-497F-880F-446DB6B8CAEF}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC6 BL2:BL6 C2:C6" xr:uid="{95DAF8C1-4405-4BAE-B6EE-82664D2D9B48}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O6" xr:uid="{C9D9D82E-4243-40F7-831B-A16E4E87F215}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AH6" xr:uid="{1D39F2A9-1B07-45B4-8F11-FA38EEF6379F}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM6" xr:uid="{3B21563C-08FE-4655-B9ED-2AC73E9AAA3C}">
+      <formula1>"0,1,2,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BH6" xr:uid="{4D724F5F-63ED-4F03-A88E-65EF6D70E4C0}">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S6" xr:uid="{A0A8FFE3-C120-4F9B-990C-8EA6124AD926}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T6" xr:uid="{BB3BCE47-9591-42BD-9748-41275D29E138}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U6" xr:uid="{85EEEA57-BA7F-4EC3-8846-27283E58DD47}">
+      <formula1>"OneWay,RoundTrip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV6" xr:uid="{8A3D6E8E-08A9-469C-AAC8-1A465635AA77}">
+      <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD6 D2:D6" xr:uid="{BD63E33E-9B58-431C-A041-06CAED86A5A2}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL6" xr:uid="{39A94097-A4C3-4BF1-8526-F16B18246B72}">
+      <formula1>"InPolicy,OutPolicy,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6" xr:uid="{B8622493-0450-471F-A549-6C6F006E494B}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2:BE6" xr:uid="{833C3747-27D9-4BB2-B91B-388D96AB7C17}">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2:BF6" xr:uid="{CB5DA8A0-F721-476B-8EFE-49F327DA2B8D}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N6" xr:uid="{F8BF3F27-58C6-4C9B-BBBC-30B2D9858EAF}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AR6" xr:uid="{DA8AA482-FDE3-4054-AD95-663BDB773FB1}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N3" r:id="rId1" display="Admin@123" xr:uid="{8CDBF5B8-79D7-4256-B4B9-F38E08FFCFBC}"/>
+    <hyperlink ref="N4" r:id="rId2" display="Admin@123" xr:uid="{CA012904-270D-4CBF-9DC4-F3C9211C1329}"/>
+    <hyperlink ref="N5" r:id="rId3" display="Admin@123" xr:uid="{24F11728-B670-4EB4-BE3F-05E1986258CA}"/>
+    <hyperlink ref="N6" r:id="rId4" display="Admin@123" xr:uid="{7D31BF82-3815-498B-87B5-69469477A342}"/>
+    <hyperlink ref="I3:I6" r:id="rId5" display="shekhar.singh@quadlabs.com" xr:uid="{A7B59CA5-A595-49E7-8E19-E19922999C09}"/>
+    <hyperlink ref="N2" r:id="rId6" display="Admin@123" xr:uid="{775DECCA-B10E-4003-9A89-27BDC2706BC2}"/>
+    <hyperlink ref="I2" r:id="rId7" display="shekhar.singh@quadlabs.com" xr:uid="{3129DDE4-49B0-4847-B2E4-203010FE9776}"/>
+    <hyperlink ref="R2" r:id="rId8" display="ajit.kumar@quadlabs.com" xr:uid="{98334703-FBA4-4FC4-95A3-40728FE12D61}"/>
+    <hyperlink ref="R3:R6" r:id="rId9" display="ajit.kumar@quadlabs.com" xr:uid="{A8910A95-5EA8-49CA-A890-C2646910759E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4FD5CD-3D5B-483E-8C7F-E815A375624C}">
   <dimension ref="A1:CD4"/>
@@ -5449,7 +8936,7 @@
   <dimension ref="A1:CF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6686,11 +10173,3125 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8587456-5551-4E32-92EE-E6692520C7CC}">
+  <dimension ref="A1:CI7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AN15" sqref="AN15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="39" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="BI1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="BM1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="BO1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="BQ1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BS1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BX1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BY1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="CB1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="CC1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="CD1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="CE1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="CF1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="CG1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI1" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG2" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF2" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG2" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN2" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO2" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP2" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR2" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX2" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB2" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE2" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="1">
+        <v>3</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL3" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO3" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF3" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG3" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN3" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP3" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB3" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE3" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI3" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="1">
+        <v>3</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X4" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN4" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN4" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO4" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP4" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX4" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB4" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE4" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI4" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG5" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL5" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN5" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP5" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN5" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP5" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR5" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX5" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE5" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI5" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X6" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG6" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL6" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN6" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO6" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP6" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AQ6" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BF6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO6" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP6" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR6" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX6" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB6" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE6" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI6" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="1">
+        <v>3</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X7" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG7" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN7" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO7" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP7" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ7" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BF7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH7" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN7" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO7" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP7" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR7" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX7" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB7" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI7" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations count="40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL15" xr:uid="{073DA54E-2ECC-492E-9B59-0D9E5F376C88}">
+      <formula1>"Mumbai,India - Shivaji Terminal (BOM),Bangalore,India - Kempegowda International Airport (BLR)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK7" xr:uid="{45E92840-A91C-4AE8-BF3F-62343D06413A}">
+      <formula1>"Flight,Hotel,Flight+Hotel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V7" xr:uid="{67FB40F3-8591-424F-91BA-AADC9207F94E}">
+      <formula1>"Normal,SSO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W7" xr:uid="{819E78FD-E67F-490D-AC46-DAE19A395C8A}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB7" xr:uid="{41E50C3C-AF06-482C-AC2F-5192DE96178C}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z7" xr:uid="{917B400D-E7C1-486D-9D91-91A31F10400B}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO7" xr:uid="{A025928D-29A7-4AA2-A6C1-29B3239124DB}">
+      <formula1>"Business trip  - Without reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M7 BD2:BE7" xr:uid="{28FBEDAC-C388-4E25-868B-13275CFF0A2D}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE7" xr:uid="{8F677A84-EE31-41FC-A164-2959D5D39F2D}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CE2:CE7 AZ2:AZ7 BC2:BC7" xr:uid="{6590DE4A-F8FE-4D3C-9549-52277B6207B9}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CD2:CD7" xr:uid="{15B7849A-B531-4D60-A60D-A6898E4C15D1}">
+      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY7" xr:uid="{189D2FF2-3471-4584-A76C-8000AFB9BFD7}">
+      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA7" xr:uid="{565C3A6A-5116-4B9C-9819-8BE4BC6DEA9A}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U7" xr:uid="{9EA81D1A-4F22-4CCA-8C82-A330DA61C070}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR7 CA2:CA7 R2:R7" xr:uid="{E12FB017-DFA3-48AB-A0E4-FD839B5D72C3}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD7" xr:uid="{E3651111-E20F-466A-8CE2-4718948248EE}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AW7" xr:uid="{A5B09E03-E0D2-4186-8672-C114A9093840}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB7" xr:uid="{6FA94677-0ABA-4C89-B90E-3B6C07426970}">
+      <formula1>"0,1,2,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BW2:BW7" xr:uid="{153EBACC-DF74-4429-B0A0-095A9FF9DF36}">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH7" xr:uid="{A66AF195-0047-4DC0-AABE-79FED45020A9}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI7" xr:uid="{53B5BB98-8B36-460F-B1AE-136A1EF7EDA5}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2:AJ7" xr:uid="{72EF17D8-8D48-46AA-8589-6411057B31D3}">
+      <formula1>"OneWay,RoundTrip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS7 S2:S7" xr:uid="{23014C18-C28F-412B-B09E-35A9898F69A4}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA7" xr:uid="{FC40E757-028D-4AB3-B067-9B8B98A2AC7D}">
+      <formula1>"InPolicy,OutPolicy,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG7" xr:uid="{4633B293-4269-41B9-B7A7-13CB6EEA63BB}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com,ajit.kumar@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF7" xr:uid="{C37E3D19-3F03-4EEC-978A-1D1D710D8EA0}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7" xr:uid="{1DA97D23-B3C2-4578-8848-31003C1A51DD}">
+      <formula1>"//staging117/backoffice/,//preprod.quadlabs.net/backoffice/,//test.quadlabs.net/backoffice/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{7BCE6152-453A-4FEA-B10A-2F4542876605}">
+      <formula1>"at,QL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7" xr:uid="{4B4D349B-6203-4A2A-9C77-1B769E26B866}">
+      <formula1>"Saurav_at,tarun"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT7" xr:uid="{863306EE-02E7-4B05-91F0-284D53DEFC8A}">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU7" xr:uid="{D3C549EF-2FF7-4B29-A71F-5612C677E5DD}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7" xr:uid="{DCE5AC26-0DC2-492C-AA7E-B613FDBACC2C}">
+      <formula1>"sbt,preprod117,Live"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC7" xr:uid="{E513EDCC-8C00-4179-8D9A-B6644E0AEFE4}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7" xr:uid="{BF3F8F83-5AE8-41E6-8A4B-D368EADE4D00}">
+      <formula1>"Laxmi@123,Password@123,Quad@720,Quad@721,Password@1234,Admin@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2:BG7" xr:uid="{8CA5141A-D0DB-4D93-861F-25414FF5CF02}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J7" xr:uid="{E8391063-A709-4174-829E-744C99E8B338}">
+      <formula1>"FFN or Loyality,Seat Preference"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:L7" xr:uid="{2AFAF6E6-D3A5-455B-9A00-7D9F76181879}">
+      <formula1>"Window,Aisle"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X7" xr:uid="{BEB68385-4DC1-47C1-9663-4E7F81C824AC}">
+      <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7" xr:uid="{B1792661-3604-41B8-A48B-FD7A2BB268A7}">
+      <formula1>"Amazon,Exxon"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CI2:CI7" xr:uid="{1F8C1A7C-1240-4D67-AEC7-26F04170A19A}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar,L K Khanal"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="AC5" r:id="rId1" display="Admin@123" xr:uid="{067BDE86-3C18-434B-944D-32711C140610}"/>
+    <hyperlink ref="G5" r:id="rId2" display="Password@123" xr:uid="{002F0ECB-B70E-4CFD-B294-0BB8829B2829}"/>
+    <hyperlink ref="F5" r:id="rId3" display="shubham.natkar@quadlabs.com" xr:uid="{6EFD3E9A-4A0F-4A9D-AF1E-20B1857E396C}"/>
+    <hyperlink ref="AC4" r:id="rId4" display="Admin@123" xr:uid="{4AD79219-1785-48ED-A7F7-B6D5B391508B}"/>
+    <hyperlink ref="G4" r:id="rId5" display="Password@123" xr:uid="{655CD9B5-9EA2-4F6A-9542-318F63C0596F}"/>
+    <hyperlink ref="F4" r:id="rId6" display="shubham.natkar@quadlabs.com" xr:uid="{6151BD4F-9DB9-43E4-B8EF-6E13DFFB6D0F}"/>
+    <hyperlink ref="X3" r:id="rId7" display="shekhar.singh@quadlabs.com" xr:uid="{DE1867DC-4DE8-4AAC-BED0-3C7D62383823}"/>
+    <hyperlink ref="AC3" r:id="rId8" display="Admin@123" xr:uid="{AF172F75-9994-4358-9749-B4D0B1FAF3D0}"/>
+    <hyperlink ref="G3" r:id="rId9" display="Password@123" xr:uid="{F67D7DC4-556D-48C8-9A51-D963F478E7AF}"/>
+    <hyperlink ref="F3" r:id="rId10" display="shubham.natkar@quadlabs.com" xr:uid="{E6C29786-E92E-44ED-935D-056D1DE2FB75}"/>
+    <hyperlink ref="X4:X5" r:id="rId11" display="shekhar.singh@quadlabs.com" xr:uid="{DF1B15B9-FC5A-4762-83DB-BAE44706B424}"/>
+    <hyperlink ref="AG2" r:id="rId12" xr:uid="{2B488D4B-17C4-40CE-A9E0-0149466C6785}"/>
+    <hyperlink ref="X2" r:id="rId13" display="shekhar.singh@quadlabs.com" xr:uid="{277266D7-0A8A-497A-9E6D-E0D2EEB90087}"/>
+    <hyperlink ref="AC2" r:id="rId14" display="Admin@123" xr:uid="{7B759D3E-9E47-474C-BCB7-7BC1C5C3569C}"/>
+    <hyperlink ref="G2" r:id="rId15" display="Password@123" xr:uid="{F60D175E-7AD2-4767-8D4E-3440A411CAC0}"/>
+    <hyperlink ref="F2" r:id="rId16" display="shubham.natkar@quadlabs.com" xr:uid="{F0A90960-33A3-464C-8645-1F2B0548D403}"/>
+    <hyperlink ref="AC6" r:id="rId17" display="Admin@123" xr:uid="{28A2B5E7-972E-4119-9DB3-CB58920EC96E}"/>
+    <hyperlink ref="AC7" r:id="rId18" display="Admin@123" xr:uid="{25E218EE-569C-467F-970B-EC13D4C62188}"/>
+    <hyperlink ref="G6" r:id="rId19" display="Password@123" xr:uid="{F4E523B7-8006-4F16-9ACB-283D76BC21FD}"/>
+    <hyperlink ref="G7" r:id="rId20" display="Password@123" xr:uid="{C9C833CC-C264-4FC4-97C1-34A1A1148CF6}"/>
+    <hyperlink ref="F6" r:id="rId21" display="shubham.natkar@quadlabs.com" xr:uid="{30A9914A-05A3-4885-B418-39E0A6556ED5}"/>
+    <hyperlink ref="F7" r:id="rId22" display="shubham.natkar@quadlabs.com" xr:uid="{45AD56EE-2389-444D-9158-B8A2E9FE1546}"/>
+    <hyperlink ref="X6" r:id="rId23" display="shekhar.singh@quadlabs.com" xr:uid="{12F9C2FC-9937-4A65-BDAF-0819B71B8CA6}"/>
+    <hyperlink ref="X7" r:id="rId24" display="shekhar.singh@quadlabs.com" xr:uid="{6B2523BA-CAC6-405C-8E43-4452773373B3}"/>
+    <hyperlink ref="AG3:AG7" r:id="rId25" display="ajit.kumar@quadlabs.com" xr:uid="{3C730E4E-3807-4264-A2E4-806E4CA1BB1F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459F2490-507A-4E55-BD44-4E84F560D234}">
+  <dimension ref="A1:CI3"/>
+  <sheetViews>
+    <sheetView topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="BZ24" sqref="BZ24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="39" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="39" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="BI1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="BM1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="BO1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="BQ1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BS1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BX1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BY1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="CB1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="CC1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="CD1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="CE1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="CF1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="CG1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI1" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG2" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF2" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG2" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN2" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO2" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP2" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR2" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX2" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB2" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE2" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="1">
+        <v>3</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL3" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO3" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF3" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG3" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN3" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP3" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB3" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE3" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI3" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CI2:CI3" xr:uid="{27407ED6-9C5C-4005-8B03-4826D63DD168}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar,L K Khanal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3" xr:uid="{0C00C7EA-4A54-4EEF-B12C-4F9E51B49677}">
+      <formula1>"Amazon,Exxon"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X3" xr:uid="{10A74CFA-D2B7-4E8C-BCA2-AB5F81FBCB79}">
+      <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:L3" xr:uid="{2F096D48-B403-4758-BD8F-EA739283DE89}">
+      <formula1>"Window,Aisle"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{004E6189-0562-4FEC-8B4F-C2C46703AE97}">
+      <formula1>"FFN or Loyality,Seat Preference"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2:BG3" xr:uid="{EDEC98F9-913A-4ED3-9308-09E2A9B851C7}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{E2B2C9C6-77DA-4BAD-8AE9-8A1847EDE613}">
+      <formula1>"Laxmi@123,Password@123,Quad@720,Quad@721,Password@1234,Admin@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC3" xr:uid="{978DCE95-B2E3-45D0-9F7E-68D56951AB75}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{1118CF9E-5229-4DC1-BC25-4B320F1E8B25}">
+      <formula1>"sbt,preprod117,Live"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU3" xr:uid="{31826E78-10A6-456C-A791-1F5E8A8068B4}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT3" xr:uid="{63DAEFA2-1507-4E29-A6A6-4D27AE637F48}">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{34ABBF98-13BD-44A4-A510-111B188A2EE2}">
+      <formula1>"Saurav_at,tarun"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{FC20A547-3204-4DA9-A0FB-9E132243DF4B}">
+      <formula1>"at,QL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{EADBB614-270C-4F40-ACD3-32C8C199C808}">
+      <formula1>"//staging117/backoffice/,//preprod.quadlabs.net/backoffice/,//test.quadlabs.net/backoffice/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF3" xr:uid="{FDCA9A26-1FC4-41CF-81D2-2E5A1B14082B}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG3" xr:uid="{25547D7C-F0E8-4920-98AE-D13F56DA374A}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com,ajit.kumar@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA3" xr:uid="{AE2C9668-92EF-4826-A75E-4F6CC0678CB9}">
+      <formula1>"InPolicy,OutPolicy,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS3 S2:S3" xr:uid="{E5DC6DDC-EEF0-47C9-AD32-E2E307395F1C}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2:AJ3" xr:uid="{E17B89DF-5096-4C9E-B7EC-96383FC65524}">
+      <formula1>"OneWay,RoundTrip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI3" xr:uid="{CA03D4C8-EA19-4888-888A-6A43323C4898}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH3" xr:uid="{4DC8026D-F566-45B4-8118-D3384CD3BA51}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BW2:BW3" xr:uid="{01B35AB2-9822-4D9D-877C-3DC74BF6018E}">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB3" xr:uid="{08FC1DFD-FCF4-41D8-BCF3-C4CABDA63A3B}">
+      <formula1>"0,1,2,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AW3" xr:uid="{8E9B0649-8058-4CCA-8840-BC618E2DC8FD}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD3" xr:uid="{6F302395-D5FD-4908-837E-0BD286E7D44B}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR3 CA2:CA3 R2:R3" xr:uid="{037192E7-4BD7-4C0B-A898-C09ACBAC84DE}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3" xr:uid="{01974A6D-CD9E-4264-A717-BC1CFFCD43AB}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA3" xr:uid="{C0573BF9-86DA-4029-BCE1-AC0227872685}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY3" xr:uid="{B1630AB9-1263-44B6-8E90-4593BE8B4163}">
+      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CD2:CD3" xr:uid="{91694C92-9BC8-4C55-A08B-B79E164D00BE}">
+      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CE2:CE3 AZ2:AZ3 BC2:BC3" xr:uid="{28DDFE71-8425-493D-AE4A-C760DAE4015A}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE3" xr:uid="{A5396BB7-6CBA-48D2-8DFD-7542845F5105}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3 BD2:BE3" xr:uid="{F9841EC2-731D-46C4-8371-1F2A61A99425}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO3" xr:uid="{7196AFB7-F1DF-4206-9107-42555BE1E242}">
+      <formula1>"Business trip  - Without reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z3" xr:uid="{85006320-5A0A-4A24-9A34-870C49C98A94}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB3" xr:uid="{D02767A5-011A-4B36-8902-59902923037C}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W3" xr:uid="{FDE705BE-7DF9-4AB1-8303-372757EE55A9}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V3" xr:uid="{A0192995-8C06-4ED0-B35F-31AF9F19B70B}">
+      <formula1>"Normal,SSO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK3" xr:uid="{7615AFB7-CBA3-48A8-A2FD-6C9E48B2DBE9}">
+      <formula1>"Flight,Hotel,Flight+Hotel"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="X3" r:id="rId1" display="shekhar.singh@quadlabs.com" xr:uid="{8B6FD6A6-378C-445D-95D0-97A07236BB4F}"/>
+    <hyperlink ref="AC3" r:id="rId2" display="Admin@123" xr:uid="{E90D1C25-1572-49ED-BD89-132FFCF4D146}"/>
+    <hyperlink ref="G3" r:id="rId3" display="Password@123" xr:uid="{D0D20C7E-503A-476E-BF22-685FBA372F2F}"/>
+    <hyperlink ref="F3" r:id="rId4" display="shubham.natkar@quadlabs.com" xr:uid="{B9B8EF7F-8B12-48D7-A82B-F36661E2756A}"/>
+    <hyperlink ref="AG2" r:id="rId5" xr:uid="{F6DB73F3-113A-425E-A344-368459666A5C}"/>
+    <hyperlink ref="X2" r:id="rId6" display="shekhar.singh@quadlabs.com" xr:uid="{1646BEE7-F04E-480D-BF86-E413AF3F3A1A}"/>
+    <hyperlink ref="AC2" r:id="rId7" display="Admin@123" xr:uid="{4D7925A9-9AF8-4D4D-8F06-AABB461A54B7}"/>
+    <hyperlink ref="G2" r:id="rId8" display="Password@123" xr:uid="{14820387-3B60-4FB2-934C-EE378396CCDD}"/>
+    <hyperlink ref="F2" r:id="rId9" display="shubham.natkar@quadlabs.com" xr:uid="{E063F734-E774-4B0B-8FF6-1FC54407966A}"/>
+    <hyperlink ref="AG3" r:id="rId10" xr:uid="{CAD6D3A1-D699-47B4-8C7E-EA7746D09597}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18847D3-2EE2-4024-B609-6581D9BB1A11}">
   <dimension ref="A1:CF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7406,7 +14007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0232C0-3D5F-42DF-A8DA-83F4C3C5433B}">
   <dimension ref="A1:CF2"/>
   <sheetViews>
@@ -8125,4 +14726,2091 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B54181-2212-4CE6-AE29-C0CEA8122BBC}">
+  <dimension ref="A1:CI7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="39" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="BI1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="BM1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="BO1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="BQ1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BS1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BX1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BY1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="CB1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="CC1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="CD1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="CE1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="CF1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="CG1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI1" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG2" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BG2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BH2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN2" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO2" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP2" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR2" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX2" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB2" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE2" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="1">
+        <v>3</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG3" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN3" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO3" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF3" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BG3" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN3" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP3" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB3" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE3" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI3" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="1">
+        <v>3</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X4" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG4" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN4" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF4" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG4" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN4" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO4" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP4" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX4" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB4" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE4" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI4" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG5" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL5" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN5" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN5" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP5" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR5" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX5" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE5" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI5" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X6" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG6" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL6" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN6" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO6" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP6" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="AQ6" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BF6" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG6" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO6" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP6" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR6" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX6" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB6" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE6" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI6" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="1">
+        <v>3</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X7" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG7" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL7" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN7" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO7" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP7" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ7" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BF7" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG7" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH7" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN7" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO7" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP7" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR7" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX7" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB7" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI7" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations count="39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7" xr:uid="{A8F95655-9964-4A67-B15F-2A3D968589A9}">
+      <formula1>"Amazon,Exxon"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:L7" xr:uid="{3B9DA374-ACC4-4551-9C29-D05FAE5F4AC3}">
+      <formula1>"Window,Aisle"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J7" xr:uid="{9BD098DC-F21E-4FC3-B5B0-BFF778E87DA1}">
+      <formula1>"FFN or Loyality,Seat Preference"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2:BG7" xr:uid="{B681C929-BF99-49D1-BDCB-4D47C5681347}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7" xr:uid="{63879331-FFAA-475F-83B2-A55AAF2931EE}">
+      <formula1>"Laxmi@123,Password@123,Quad@720,Quad@721,Password@1234,Admin@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC7" xr:uid="{BD4748F1-6C2E-4370-B38F-0A372A555CE7}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7" xr:uid="{86F58FF4-8296-4C8D-B4E6-BFDE6179C9B1}">
+      <formula1>"sbt,preprod117,Live"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU7" xr:uid="{13F522E3-7334-4B58-85B1-88C0B11BB257}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT7" xr:uid="{A671D2F9-D9A8-457E-B21A-058187A2159A}">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7" xr:uid="{82ADE252-E234-4620-BE63-61E08CDB9C6E}">
+      <formula1>"Saurav_at,tarun"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{080135E1-2FA5-4CF5-B0CA-0BCD517AEDFA}">
+      <formula1>"at,QL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7" xr:uid="{22A7522D-A18C-4FDD-899E-DFA8BDA91E4A}">
+      <formula1>"//staging117/backoffice/,//preprod.quadlabs.net/backoffice/,//test.quadlabs.net/backoffice/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF7" xr:uid="{FF1B9A51-8AD7-416C-8BA3-51D36A662DB4}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA7" xr:uid="{61B16E50-139E-4064-BBF9-156D7C497505}">
+      <formula1>"InPolicy,OutPolicy,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS7 S2:S7" xr:uid="{FBA1936A-D0EB-4E43-A7B1-39570E750156}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2:AJ7" xr:uid="{E20861D3-7AA3-4E05-974F-22A38600283D}">
+      <formula1>"OneWay,RoundTrip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI7" xr:uid="{8696C03F-722B-4627-8DD6-F6D91A6F8A54}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH7" xr:uid="{BAF9A154-68E0-4EBF-A44D-0FF00ADC90DA}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BW2:BW7" xr:uid="{6B1EE9AE-916B-48C5-9640-646C74AFD029}">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB7" xr:uid="{2C8F2333-0499-4253-807B-5F10FC9775F2}">
+      <formula1>"0,1,2,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AW7" xr:uid="{95DAFC37-8C66-4DFC-9405-A4ED89EA3D80}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD7" xr:uid="{455A8A0F-4267-4669-A5A8-BD8F930D739B}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR7 CA2:CA7 R2:R7" xr:uid="{B8424945-8413-4687-B1AD-EF53DB6B32B1}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U7" xr:uid="{3EB6D793-4543-457F-8C20-8BDC3745F6BF}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA7" xr:uid="{6D9484CA-03DE-4F99-840D-CA5C90CF95A7}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY7" xr:uid="{02AD5D39-9EAA-494D-8C15-839E178151A9}">
+      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CD2:CD7" xr:uid="{405C5706-EFFB-4151-94A4-83909EBFEA3B}">
+      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CE2:CE7 AZ2:AZ7 BC2:BC7" xr:uid="{DF9722E4-A840-4848-8EC0-83A53598BEAE}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE7" xr:uid="{2A1D4AF0-8528-4243-8F3D-A3021B2A3110}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M7 BD2:BE7" xr:uid="{8E4C3D45-A47F-4389-B569-3F837B170EDE}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO7" xr:uid="{5CA21D9A-13F2-4FF7-9BF3-000AFC2BCE94}">
+      <formula1>"Business trip  - Without reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB7" xr:uid="{7B75FE0F-4069-4F61-AB5F-70FFE6258821}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W7" xr:uid="{CBF60F59-46B8-4A29-AEC2-3C5FCC1B9607}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V7" xr:uid="{0C46BE40-228F-4985-90F6-395D5503B1D3}">
+      <formula1>"Normal,SSO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK7" xr:uid="{480D3EBA-7820-4F44-AAF9-67EADF1014EB}">
+      <formula1>"Flight,Hotel,Flight+Hotel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CI2:CI7" xr:uid="{425C1189-C980-4A14-B74B-EE27F10ED675}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar,L K Khanal,Ayushi shivhare,Vikrant prajapati"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X7" xr:uid="{69D56D7C-760A-45BB-8E61-E489BC8EADFE}">
+      <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com,ayushi.shivhare@quadlabs.com,Vikrant.prajapati@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z7" xr:uid="{42786DC7-923E-4D76-822B-C9DD812DB3EC}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar,Ayushi Shivhare,Vikrant prajapati,Ashish Topwal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG7" xr:uid="{86040E30-507D-44F2-B75B-0A9BC7AEDF23}">
+      <formula1>"prince.chaurasia@quadlabs.com,ayushi.shivhare@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com,pramod.kumar@quadlabs.com,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="AC5" r:id="rId1" display="Admin@123" xr:uid="{7A88E329-7FEC-4D97-9AF5-0399BE24D9F9}"/>
+    <hyperlink ref="G5" r:id="rId2" display="Password@123" xr:uid="{A76F8D17-ABA1-4BE7-B7C1-D46B7EC51811}"/>
+    <hyperlink ref="F5" r:id="rId3" display="shubham.natkar@quadlabs.com" xr:uid="{C65E63B7-DF93-419E-B409-05EAD3AF2386}"/>
+    <hyperlink ref="AC4" r:id="rId4" display="Admin@123" xr:uid="{C7D6BD41-2C8C-4BA4-A4B6-602CB900D14D}"/>
+    <hyperlink ref="G4" r:id="rId5" display="Password@123" xr:uid="{7A416CB6-30A2-45A0-8749-63FFF36D1517}"/>
+    <hyperlink ref="F4" r:id="rId6" display="shubham.natkar@quadlabs.com" xr:uid="{4552BEAD-4847-46B7-AB81-6AE421AA9B59}"/>
+    <hyperlink ref="AG2" r:id="rId7" display="ajit.kumar@quadlabs.com" xr:uid="{FD78E073-DD28-4EE6-93CB-445CA47AB7A4}"/>
+    <hyperlink ref="X2" r:id="rId8" display="shekhar.singh@quadlabs.com" xr:uid="{B2FE9CFB-C449-4635-A68B-FBF2CF52E09B}"/>
+    <hyperlink ref="AC2" r:id="rId9" display="Admin@123" xr:uid="{3C81A9C5-4E9F-46CE-861E-B6B7110BA315}"/>
+    <hyperlink ref="G2" r:id="rId10" display="Password@123" xr:uid="{4F843882-0C7B-453E-827F-E908DD0FE2EE}"/>
+    <hyperlink ref="F2" r:id="rId11" display="shubham.natkar@quadlabs.com" xr:uid="{F4BFEAF3-7BF4-47A3-BAD3-D7518BB1EDAE}"/>
+    <hyperlink ref="AC3" r:id="rId12" display="Admin@123" xr:uid="{AE726F7F-949D-4A4C-9E9E-5B5E3D48206B}"/>
+    <hyperlink ref="G3" r:id="rId13" display="Password@123" xr:uid="{F134F129-7BDE-492E-8922-94EA1E7AC943}"/>
+    <hyperlink ref="F3" r:id="rId14" display="shubham.natkar@quadlabs.com" xr:uid="{2A48E8A0-7451-4DD9-8A4C-949C3940E9BF}"/>
+    <hyperlink ref="AC6" r:id="rId15" display="Admin@123" xr:uid="{4E4B49FB-6455-4048-9789-F4F3D792FAB8}"/>
+    <hyperlink ref="G6" r:id="rId16" display="Password@123" xr:uid="{7017B6C1-30C7-4C8C-B1EF-456C20EA508B}"/>
+    <hyperlink ref="F6" r:id="rId17" display="shubham.natkar@quadlabs.com" xr:uid="{5F9D8152-D612-4CBA-BAC2-9ADCE183C8D1}"/>
+    <hyperlink ref="AC7" r:id="rId18" display="Admin@123" xr:uid="{A995BA51-407A-46D4-B684-648AD72AFA91}"/>
+    <hyperlink ref="G7" r:id="rId19" display="Password@123" xr:uid="{7379BB65-810F-4C54-A5C4-3BE399857A11}"/>
+    <hyperlink ref="F7" r:id="rId20" display="shubham.natkar@quadlabs.com" xr:uid="{EB465E07-5D6D-4A14-AABC-539471FD6ADB}"/>
+    <hyperlink ref="X3:X7" r:id="rId21" display="shekhar.singh@quadlabs.com" xr:uid="{057470C4-F62C-4A14-8EC7-3310CD78642D}"/>
+    <hyperlink ref="AG3:AG7" r:id="rId22" display="ajit.kumar@quadlabs.com" xr:uid="{9CB7E916-E948-4D25-897E-EB0F19FAD4DD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/excel/TestOn_FFno_To_BookingFlow.xlsx
+++ b/data/excel/TestOn_FFno_To_BookingFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankur.Yadav\git\ProjectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3A223C-A1E0-4955-B537-769683CD8D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CC53FB-9A8C-4D16-BA03-AFA697EAF16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="84" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <sheet name="Sheet5" sheetId="88" r:id="rId8"/>
     <sheet name="NonBrandingpreference" sheetId="91" r:id="rId9"/>
     <sheet name="Testbookingflow" sheetId="93" r:id="rId10"/>
-    <sheet name="Sheet9" sheetId="94" r:id="rId11"/>
+    <sheet name="Livetest" sheetId="95" r:id="rId11"/>
+    <sheet name="Liveflightbook" sheetId="96" r:id="rId12"/>
+    <sheet name="Sheet9" sheetId="94" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4872" uniqueCount="259">
   <si>
     <t>del</t>
   </si>
@@ -751,6 +753,78 @@
   </si>
   <si>
     <t>12-Jun-2024</t>
+  </si>
+  <si>
+    <t>AirlineType</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>GDS</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Cd</t>
+  </si>
+  <si>
+    <t>//www.tripsource.co.in/backoffice/Home.aspx</t>
+  </si>
+  <si>
+    <t>cd_qlsupport</t>
+  </si>
+  <si>
+    <t>XYZ Corporate</t>
+  </si>
+  <si>
+    <t>Laxmi</t>
+  </si>
+  <si>
+    <t>tripsource.co.in/sbt/#</t>
+  </si>
+  <si>
+    <t>DWUFR8WRAR6SL1M</t>
+  </si>
+  <si>
+    <t>Mumbai,India - Chhatrapati Shivaji Maharaj International (BOM)</t>
+  </si>
+  <si>
+    <t>Chennai,India - Chennai International Airport (MAA)</t>
+  </si>
+  <si>
+    <t>Blr</t>
+  </si>
+  <si>
+    <t>Bangalore,India - Kempegowda International Airport (BLR)</t>
+  </si>
+  <si>
+    <t>Verify Booking flow-Domestic(One Way) With seat map.</t>
+  </si>
+  <si>
+    <t>Test on Flight 7</t>
+  </si>
+  <si>
+    <t>Verify Booking flow- Domestic(Round Trip) With seat map.</t>
+  </si>
+  <si>
+    <t>Test on Flight 8</t>
+  </si>
+  <si>
+    <t>Verify Booking flow -International(One Way)</t>
+  </si>
+  <si>
+    <t>Test on Flight 9</t>
+  </si>
+  <si>
+    <t>Verify Booking flow -International(Round Trip)</t>
+  </si>
+  <si>
+    <t>Test on Flight 10</t>
+  </si>
+  <si>
+    <t>Verify Booking flow- Domestic(One Way) With seat map.</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1296,7 @@
   <dimension ref="A1:CD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3195,8 +3269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD58D4F-25CC-47DA-9F4E-DED83D0791D4}">
   <dimension ref="A1:CI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="BA11" sqref="BA11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3577,7 +3651,7 @@
         <v>177</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>186</v>
@@ -3840,7 +3914,7 @@
         <v>177</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>186</v>
@@ -4103,7 +4177,7 @@
         <v>177</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>186</v>
@@ -4366,7 +4440,7 @@
         <v>177</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>186</v>
@@ -4629,7 +4703,7 @@
         <v>177</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>186</v>
@@ -5012,6 +5086,4412 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087566B3-5580-43CB-AD16-B074DBDC42ED}">
+  <dimension ref="A1:CI6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="39" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="BI1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="BM1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="BO1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="BQ1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BS1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BX1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BY1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="CB1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="CC1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="CD1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="CE1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="CF1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="CG1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI1" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG2" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BG2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BH2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN2" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO2" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP2" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR2" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX2" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB2" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE2" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="1">
+        <v>3</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG3" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AO3" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BF3" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BG3" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN3" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP3" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB3" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE3" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI3" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="1">
+        <v>3</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="X4" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG4" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF4" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BG4" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN4" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO4" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP4" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX4" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB4" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE4" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI4" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG5" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP5" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN5" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP5" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR5" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX5" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE5" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI5" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="X6" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG6" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO6" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP6" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="AQ6" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BF6" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG6" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO6" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP6" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BQ6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR6" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BS6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX6" s="3">
+        <v>123</v>
+      </c>
+      <c r="BY6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB6" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE6" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI6" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG6" xr:uid="{16B29809-8826-4109-854C-80E34DB7E7A4}">
+      <formula1>"prince.chaurasia@quadlabs.com,ayushi.shivhare@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com,sahilyadavmp@gmail.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:L6" xr:uid="{A11F7B8C-92EE-404A-A25C-A0CB66F01035}">
+      <formula1>"Window,Aisle"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{7CF64E4B-386D-4D55-B9DF-C41EA3BADB24}">
+      <formula1>"FFN or Loyality,Seat Preference"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2:BG6" xr:uid="{6FCD5494-E3B3-44E3-BAE1-A7773BD7AA9F}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{061D4A3C-73FA-409F-B2B4-9BE206926B14}">
+      <formula1>"Laxmi@123,Password@123,Quad@720,Quad@721,Password@1234,Admin@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC6" xr:uid="{5CFF065A-063E-4B46-8EC7-FA4E882BFB2F}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{7518FA73-C971-4A23-8E29-E74513847C8E}">
+      <formula1>"sbt,preprod117,Live"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU6" xr:uid="{6EA4CE99-1278-466A-98F4-A5F1C1DAEEA2}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT6" xr:uid="{A64E56D7-368C-4E2E-8C45-FBF7BC0AE5D7}">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF6" xr:uid="{80AC060E-C3BD-4729-9C0E-30A8FB6398C9}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA6" xr:uid="{1E92BFF8-08A1-48C5-A76D-EB2FC6881D60}">
+      <formula1>"InPolicy,OutPolicy,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS6 S2:S6" xr:uid="{3CC259FA-BD3C-4B7F-B995-8ED347AF4DE8}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2:AJ6" xr:uid="{F2E5112F-E89A-4BB2-B196-CADD2E087BB1}">
+      <formula1>"OneWay,RoundTrip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI6" xr:uid="{1D1F9BDD-66C9-4729-9860-8731BB3CAE9F}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH6" xr:uid="{9AA05B9D-C742-4A65-BE18-58C3EB4B1B1C}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BW2:BW6" xr:uid="{684C7DDF-A969-4792-B722-3A08C58A4596}">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB6" xr:uid="{B594611B-4E20-4D22-8A1E-1E16C36BF3D0}">
+      <formula1>"0,1,2,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AW6" xr:uid="{27FA1DD5-5330-4A43-9FBA-B0D9AFEE3CE3}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD6" xr:uid="{78D5CE84-72DA-4CAC-A85F-8F601B0D5834}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR6 CA2:CA6 R2:R6" xr:uid="{E30E4663-7C47-4672-A929-5E98FE5F5C48}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U6" xr:uid="{40B2AA4F-1804-4005-81CC-95C64E091C8E}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA6" xr:uid="{44A9318D-8CE0-4A3E-A19E-6D567171DC00}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY6" xr:uid="{5828CBBD-5A68-4260-BC1C-E8096891515F}">
+      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CD2:CD6" xr:uid="{CB388A22-16EE-443C-BB01-A36A80AAB098}">
+      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CE2:CE6 AZ2:AZ6 BC2:BC6" xr:uid="{ED53EB8E-F792-4202-8B60-06F02DB6CF87}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE6" xr:uid="{1B14407F-AA7D-4C4D-95DE-D7CBCFB5E5C5}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6 BD2:BE6" xr:uid="{9A5D4469-E71D-4516-A640-49A50E4FD597}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO6" xr:uid="{5F418A8C-6C39-4255-BA6E-C634B68D6625}">
+      <formula1>"Business trip  - Without reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB6" xr:uid="{99C64E94-44A5-49C3-B476-E9516E63969F}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W6" xr:uid="{A4271E7E-E14B-418D-B442-340476273653}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V6" xr:uid="{EAB2E4A2-8A8E-4DF0-B427-4E00122CDB66}">
+      <formula1>"Normal,SSO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK6" xr:uid="{CDD1D359-85DD-4550-9624-E4CD6489ACA4}">
+      <formula1>"Flight,Hotel,Flight+Hotel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CI2:CI6" xr:uid="{8CDF79A2-73C7-468D-920E-7AF625E0A225}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar,L K Khanal,Ayushi shivhare,Vikrant prajapati"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X6" xr:uid="{A64DB36B-78B1-4133-A682-C066B2126941}">
+      <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com,ayushi.shivhare@quadlabs.com,Vikrant.prajapati@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z6" xr:uid="{19F694D6-948A-4A69-ABC4-52DBF2C03E13}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar,Ayushi Shivhare,Vikrant prajapati,Ashish Topwal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{5C717CF1-8F54-4E39-B430-A34B6DF3CA46}">
+      <formula1>"at,QL,Cd"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{04C52A74-ECB5-4A0A-A3B5-1892F2C1BF58}">
+      <formula1>"//staging117/backoffice/,//preprod.quadlabs.net/backoffice/,//test.quadlabs.net/backoffice/,//www.tripsource.co.in/backoffice/Home.aspx"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{AA2C5819-8727-492A-BA05-76BD9C41AFC7}">
+      <formula1>"Saurav_at,tarun,cd_qlsupport"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6" xr:uid="{98574D32-3D83-4606-B4B2-9949FBF138C4}">
+      <formula1>"Amazon,Exxon,XYZ Corporate"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1" display="Password@123" xr:uid="{B67A0C8F-3401-4353-A157-8BC10C3C1FC5}"/>
+    <hyperlink ref="G4" r:id="rId2" display="Password@123" xr:uid="{E24E3128-0D84-4128-ADD0-1A79E2A8AE00}"/>
+    <hyperlink ref="X2" r:id="rId3" display="shekhar.singh@quadlabs.com" xr:uid="{7B590A80-C8B5-4D08-9631-810F6572A52C}"/>
+    <hyperlink ref="AC2" r:id="rId4" display="Admin@123" xr:uid="{C96B8577-3D06-476A-9094-0F8054BB677F}"/>
+    <hyperlink ref="G2" r:id="rId5" display="Password@123" xr:uid="{EDCEF7E6-7DD1-4E89-9109-427D7D28B377}"/>
+    <hyperlink ref="F2" r:id="rId6" display="shubham.natkar@quadlabs.com" xr:uid="{1882BD41-CECE-4DD2-A501-155EBA128FDD}"/>
+    <hyperlink ref="G3" r:id="rId7" display="Password@123" xr:uid="{C60CD7FE-FDFC-461A-9660-DB9C45191469}"/>
+    <hyperlink ref="G6" r:id="rId8" display="Password@123" xr:uid="{92DC8436-065F-4654-87EE-BCE0EA7927E7}"/>
+    <hyperlink ref="X3:X6" r:id="rId9" display="shekhar.singh@quadlabs.com" xr:uid="{D6F38B6C-955D-4764-AFBF-7527D8845098}"/>
+    <hyperlink ref="AG2" r:id="rId10" display="ajit.kumar@quadlabs.com" xr:uid="{2EBD80D4-3545-4F2C-96B5-B40C021735BC}"/>
+    <hyperlink ref="F3:F6" r:id="rId11" display="shubham.natkar@quadlabs.com" xr:uid="{8D2A1043-F8C1-41C4-85F2-F1A48FF30B21}"/>
+    <hyperlink ref="AC3:AC6" r:id="rId12" display="Admin@123" xr:uid="{39A656A4-D353-4C77-BA51-C99AC3B5E697}"/>
+    <hyperlink ref="AG3:AG6" r:id="rId13" display="ajit.kumar@quadlabs.com" xr:uid="{769B4ABA-FEBA-4394-903F-8B2980CC61B5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B60C22-A13E-4885-8BFF-3E766F863876}">
+  <dimension ref="A1:BT11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="41.5703125" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BG1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BH1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="BN1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="BO1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT1" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY2" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ2" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA2" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC2" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>123</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM2" s="5">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP2" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY3" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA3" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC3" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>123</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM3" s="5">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP3" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY4" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ4" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA4" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BB4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC4" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>123</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM4" s="5">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP4" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT4" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY5" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA5" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC5" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI5" s="3">
+        <v>123</v>
+      </c>
+      <c r="BJ5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM5" s="5">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP5" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT5" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO6" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ6" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR6" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ6" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA6" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BB6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC6" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI6" s="3">
+        <v>123</v>
+      </c>
+      <c r="BJ6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM6" s="5">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP6" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT6" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="R7" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z7" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ7" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR7" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY7" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ7" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BB7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC7" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI7" s="3">
+        <v>123</v>
+      </c>
+      <c r="BJ7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM7" s="5">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT7" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="R8" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z8" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK8" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX8" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY8" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ8" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA8" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BB8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC8" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BD8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI8" s="3">
+        <v>123</v>
+      </c>
+      <c r="BJ8" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM8" s="5">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP8" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT8" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK9" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ9" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR9" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX9" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY9" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ9" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA9" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BB9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC9" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI9" s="3">
+        <v>123</v>
+      </c>
+      <c r="BJ9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM9" s="5">
+        <v>1</v>
+      </c>
+      <c r="BN9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT9" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z10" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY10" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA10" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BB10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC10" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI10" s="3">
+        <v>123</v>
+      </c>
+      <c r="BJ10" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM10" s="5">
+        <v>1</v>
+      </c>
+      <c r="BN10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP10" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT10" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:72" ht="48" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z11" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO11" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP11" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ11" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR11" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY11" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA11" s="3">
+        <v>78554432323</v>
+      </c>
+      <c r="BB11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC11" s="3">
+        <v>345678</v>
+      </c>
+      <c r="BD11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI11" s="3">
+        <v>123</v>
+      </c>
+      <c r="BJ11" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM11" s="5">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP11" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT11" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AR11" xr:uid="{861FEE0E-6EB0-4F44-844F-A6DE6A8AB669}">
+      <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11" xr:uid="{55D951E8-2182-498E-9F93-C1CC978889CB}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2:BF11" xr:uid="{6CBEB838-3BE6-433D-94AE-37DE43698D1E}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2:BE11" xr:uid="{73423862-75BB-4653-911F-F3942138FE83}">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q11" xr:uid="{13FA1368-3C9D-48D3-9B5F-FF50C60E9B32}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL11" xr:uid="{CB212BEA-583D-48EE-A70F-0C027B03E415}">
+      <formula1>"InPolicy,OutPolicy,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD11 D2:D11" xr:uid="{E3784A88-CAC5-4B42-B65A-C9EB13F61713}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV11" xr:uid="{259D168B-3708-4D80-82B1-4710D6CA1211}">
+      <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U11" xr:uid="{5BC260AD-25AB-4718-98CB-7BF98E095D6C}">
+      <formula1>"OneWay,RoundTrip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T11" xr:uid="{3D468229-D7BE-48B4-805D-86C5E7BA6613}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S11" xr:uid="{6493B547-0EDB-4FDF-B7C4-8506871B1362}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BH11" xr:uid="{2296CA76-224C-4345-BC09-6268201E3591}">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM11" xr:uid="{E14A2814-EEF7-4B1F-B448-61A02D467A58}">
+      <formula1>"0,1,2,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AH11" xr:uid="{1E65D05B-9FE2-492F-A388-D3A8700FB634}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O11" xr:uid="{2D8ABA68-2316-440F-9659-4C0E16E83C0D}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC11 BL2:BL11 C2:C11" xr:uid="{DF2FF1D1-D1B2-4528-B5DC-03B63DCD2B22}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11" xr:uid="{A13E0D9B-4EE6-4B6D-80A7-BAB681C06F65}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11" xr:uid="{4C11B79C-59CA-4A13-8F0A-16C5155126A6}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ11" xr:uid="{D03DD2FB-D92B-426D-AF8B-9FB57C295921}">
+      <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO11" xr:uid="{D26A91B1-32E2-4420-9FB4-8939F9E493F2}">
+      <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2:AN11 AK2:AK11 BP2:BP11" xr:uid="{4606FBD9-014F-436E-84E0-88DA89CB1581}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P11" xr:uid="{E8333015-4682-46A8-8D2C-4D7A6F01BDCD}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AP11" xr:uid="{85C851AD-CA3A-4FB6-9012-EF038B251C0B}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z11" xr:uid="{1F45A513-A1DE-4958-8EE4-92F429C24F40}">
+      <formula1>"Business trip  - Without reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT11 K2:K11" xr:uid="{24B511C5-B36F-4A2D-8A58-61A265E84932}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11" xr:uid="{C42D8600-30C6-4EC7-99FD-CCF112981B2A}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H11" xr:uid="{B6A53FDE-B9FE-4910-82B2-9F4AAA7B962C}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G11" xr:uid="{517EE444-D76B-4E9B-B47F-5609834040AE}">
+      <formula1>"Normal,SSO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I11" xr:uid="{7D576D34-60DD-45CB-8CDF-092EB768C3C5}">
+      <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com,ayushi.shivhare@quadlabs.com,Vikrant.prajapati@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R11" xr:uid="{4F32CD8D-2A2F-4E6A-B0C4-5B5283C4330E}">
+      <formula1>"prince.chaurasia@quadlabs.com,ayushi.shivhare@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,ankit.bist@quadlabs.com,sahilyadavmp@gmail.com"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I3:I6" r:id="rId1" display="shekhar.singh@quadlabs.com" xr:uid="{FE731AD1-11B4-40B5-981A-4A34DD74EC27}"/>
+    <hyperlink ref="N2" r:id="rId2" display="Admin@123" xr:uid="{8CC1377B-CC03-4FC2-A3F5-2ADC8BC4237F}"/>
+    <hyperlink ref="I2" r:id="rId3" display="shekhar.singh@quadlabs.com" xr:uid="{FAD3D757-9062-448F-83F4-E76ABADD75B3}"/>
+    <hyperlink ref="R2" r:id="rId4" display="ajit.kumar@quadlabs.com" xr:uid="{CF892A20-AD88-4A90-88F2-EAD2FA0C07C6}"/>
+    <hyperlink ref="R3:R6" r:id="rId5" display="ajit.kumar@quadlabs.com" xr:uid="{6BB9A22B-159C-40B6-8AA4-771E81C99AB0}"/>
+    <hyperlink ref="N3:N6" r:id="rId6" display="Admin@123" xr:uid="{C0222D86-0F43-41F6-B305-97DCE53A3917}"/>
+    <hyperlink ref="I8:I11" r:id="rId7" display="shekhar.singh@quadlabs.com" xr:uid="{C88AE92F-393C-425D-BF36-70D332CE5114}"/>
+    <hyperlink ref="N7" r:id="rId8" display="Admin@123" xr:uid="{665BEC48-80CD-49AB-A982-D7BA611D87A1}"/>
+    <hyperlink ref="I7" r:id="rId9" display="shekhar.singh@quadlabs.com" xr:uid="{5CB62374-7BC3-4451-A26F-D006934BE720}"/>
+    <hyperlink ref="R7" r:id="rId10" display="ajit.kumar@quadlabs.com" xr:uid="{B5C69355-B19C-48AF-9581-57268EE44CD5}"/>
+    <hyperlink ref="R8:R11" r:id="rId11" display="ajit.kumar@quadlabs.com" xr:uid="{B1CE1415-1EA6-4717-969E-8D05526B0CA1}"/>
+    <hyperlink ref="N8:N11" r:id="rId12" display="Admin@123" xr:uid="{2F8B9BE1-4AA8-4F1D-BF2C-1CDA6D3C3851}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DCD699-C993-40E4-A20B-56CE7FEA6EE2}">
   <dimension ref="A1:BT6"/>
   <sheetViews>
@@ -10174,10 +14654,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8587456-5551-4E32-92EE-E6692520C7CC}">
-  <dimension ref="A1:CI7"/>
+  <dimension ref="A1:CJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AN15" sqref="AN15"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10236,39 +14716,40 @@
     <col min="55" max="55" width="14" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="15" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="14" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.5703125" customWidth="1"/>
+    <col min="59" max="59" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="9" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
@@ -10441,97 +14922,100 @@
         <v>87</v>
       </c>
       <c r="BF1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BG1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="BH1" s="13" t="s">
+      <c r="BI1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BI1" s="13" t="s">
+      <c r="BJ1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="BJ1" s="13" t="s">
+      <c r="BK1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="BK1" s="13" t="s">
+      <c r="BL1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="BL1" s="20" t="s">
+      <c r="BM1" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="BM1" s="20" t="s">
+      <c r="BN1" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="BN1" s="20" t="s">
+      <c r="BO1" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="BO1" s="20" t="s">
+      <c r="BP1" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="BP1" s="13" t="s">
+      <c r="BQ1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="BQ1" s="13" t="s">
+      <c r="BR1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="BR1" s="13" t="s">
+      <c r="BS1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="BS1" s="13" t="s">
+      <c r="BT1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="BT1" s="13" t="s">
+      <c r="BU1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="BU1" s="10" t="s">
+      <c r="BV1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="BV1" s="10" t="s">
+      <c r="BW1" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="BW1" s="13" t="s">
+      <c r="BX1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="BX1" s="13" t="s">
+      <c r="BY1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BY1" s="13" t="s">
+      <c r="BZ1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="13" t="s">
+      <c r="CA1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="CA1" s="12" t="s">
+      <c r="CB1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="CB1" s="12" t="s">
+      <c r="CC1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="CC1" s="12" t="s">
+      <c r="CD1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="CD1" s="13" t="s">
+      <c r="CE1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="CE1" s="13" t="s">
+      <c r="CF1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="CF1" s="13" t="s">
+      <c r="CG1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="CG1" s="13" t="s">
+      <c r="CH1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="CH1" s="13" t="s">
+      <c r="CI1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="CI1" s="13" t="s">
+      <c r="CJ1" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:88" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -10623,10 +15107,10 @@
         <v>50</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="AG2" s="22" t="s">
         <v>128</v>
@@ -10703,14 +15187,14 @@
       <c r="BE2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="BF2" s="9" t="s">
-        <v>156</v>
+      <c r="BF2" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="BG2" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="BH2" s="3">
-        <v>1</v>
+      <c r="BH2" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="BI2" s="3">
         <v>1</v>
@@ -10718,83 +15202,86 @@
       <c r="BJ2" s="3">
         <v>1</v>
       </c>
-      <c r="BK2" s="3" t="s">
+      <c r="BK2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BL2" s="9" t="s">
+      <c r="BM2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="BM2" s="9" t="s">
+      <c r="BN2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="BN2" s="21" t="s">
+      <c r="BO2" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="BO2" s="21" t="s">
+      <c r="BP2" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="BP2" s="3">
+      <c r="BQ2" s="3">
         <v>78554432323</v>
       </c>
-      <c r="BQ2" s="3" t="s">
+      <c r="BR2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BR2" s="3">
+      <c r="BS2" s="3">
         <v>345678</v>
       </c>
-      <c r="BS2" s="3" t="s">
+      <c r="BT2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="BT2" s="3" t="s">
+      <c r="BU2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BU2" s="1">
-        <v>1</v>
-      </c>
-      <c r="BV2" s="1" t="s">
+      <c r="BV2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BW2" s="3" t="s">
+      <c r="BX2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BX2" s="3">
+      <c r="BY2" s="3">
         <v>123</v>
       </c>
-      <c r="BY2" s="3" t="s">
+      <c r="BZ2" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="BZ2" s="3" t="s">
+      <c r="CA2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="CA2" s="5" t="s">
+      <c r="CB2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="CB2" s="5">
-        <v>1</v>
-      </c>
-      <c r="CC2" s="5" t="s">
+      <c r="CC2" s="5">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="CD2" s="3" t="s">
+      <c r="CE2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="CE2" s="19" t="s">
+      <c r="CF2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="CF2" s="3" t="s">
+      <c r="CG2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="CG2" s="3" t="s">
+      <c r="CH2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="CH2" s="3" t="s">
+      <c r="CI2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="CI2" s="3" t="s">
+      <c r="CJ2" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:88" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>143</v>
       </c>
@@ -10886,10 +15373,10 @@
         <v>50</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="AG3" s="22" t="s">
         <v>128</v>
@@ -10966,14 +15453,14 @@
       <c r="BE3" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="BF3" s="9" t="s">
-        <v>157</v>
+      <c r="BF3" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="BG3" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="BH3" s="3">
-        <v>1</v>
+      <c r="BH3" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="BI3" s="3">
         <v>1</v>
@@ -10981,83 +15468,86 @@
       <c r="BJ3" s="3">
         <v>1</v>
       </c>
-      <c r="BK3" s="3" t="s">
+      <c r="BK3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BL3" s="9" t="s">
+      <c r="BM3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="BM3" s="9" t="s">
+      <c r="BN3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="BN3" s="21" t="s">
+      <c r="BO3" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="BO3" s="21" t="s">
+      <c r="BP3" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="BP3" s="3">
+      <c r="BQ3" s="3">
         <v>78554432323</v>
       </c>
-      <c r="BQ3" s="3" t="s">
+      <c r="BR3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BR3" s="3">
+      <c r="BS3" s="3">
         <v>345678</v>
       </c>
-      <c r="BS3" s="3" t="s">
+      <c r="BT3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="BT3" s="3" t="s">
+      <c r="BU3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BU3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BV3" s="1" t="s">
+      <c r="BV3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BW3" s="3" t="s">
+      <c r="BX3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BX3" s="3">
+      <c r="BY3" s="3">
         <v>123</v>
       </c>
-      <c r="BY3" s="3" t="s">
+      <c r="BZ3" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="BZ3" s="3" t="s">
+      <c r="CA3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="CA3" s="5" t="s">
+      <c r="CB3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="CB3" s="5">
-        <v>1</v>
-      </c>
-      <c r="CC3" s="5" t="s">
+      <c r="CC3" s="5">
+        <v>1</v>
+      </c>
+      <c r="CD3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="CD3" s="3" t="s">
+      <c r="CE3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="CE3" s="19" t="s">
+      <c r="CF3" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="CF3" s="3" t="s">
+      <c r="CG3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="CG3" s="3" t="s">
+      <c r="CH3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="CH3" s="3" t="s">
+      <c r="CI3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="CI3" s="3" t="s">
+      <c r="CJ3" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:88" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>144</v>
       </c>
@@ -11149,10 +15639,10 @@
         <v>50</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="AG4" s="22" t="s">
         <v>128</v>
@@ -11229,14 +15719,14 @@
       <c r="BE4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="BF4" s="9" t="s">
-        <v>157</v>
+      <c r="BF4" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="BG4" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="BH4" s="3">
-        <v>1</v>
+      <c r="BH4" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="BI4" s="3">
         <v>1</v>
@@ -11244,83 +15734,86 @@
       <c r="BJ4" s="3">
         <v>1</v>
       </c>
-      <c r="BK4" s="3" t="s">
+      <c r="BK4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BL4" s="9" t="s">
+      <c r="BM4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="BM4" s="9" t="s">
+      <c r="BN4" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="BN4" s="21" t="s">
+      <c r="BO4" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="BO4" s="21" t="s">
+      <c r="BP4" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="BP4" s="3">
+      <c r="BQ4" s="3">
         <v>78554432323</v>
       </c>
-      <c r="BQ4" s="3" t="s">
+      <c r="BR4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BR4" s="3">
+      <c r="BS4" s="3">
         <v>345678</v>
       </c>
-      <c r="BS4" s="3" t="s">
+      <c r="BT4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="BT4" s="3" t="s">
+      <c r="BU4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BU4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BV4" s="1" t="s">
+      <c r="BV4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BW4" s="3" t="s">
+      <c r="BX4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BX4" s="3">
+      <c r="BY4" s="3">
         <v>123</v>
       </c>
-      <c r="BY4" s="3" t="s">
+      <c r="BZ4" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="BZ4" s="3" t="s">
+      <c r="CA4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="CA4" s="5" t="s">
+      <c r="CB4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="CB4" s="5">
-        <v>1</v>
-      </c>
-      <c r="CC4" s="5" t="s">
+      <c r="CC4" s="5">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="CD4" s="3" t="s">
+      <c r="CE4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="CE4" s="19" t="s">
+      <c r="CF4" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="CF4" s="3" t="s">
+      <c r="CG4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="CG4" s="3" t="s">
+      <c r="CH4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="CH4" s="3" t="s">
+      <c r="CI4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="CI4" s="3" t="s">
+      <c r="CJ4" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:88" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>145</v>
       </c>
@@ -11412,10 +15905,10 @@
         <v>50</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="AG5" s="22" t="s">
         <v>128</v>
@@ -11492,14 +15985,14 @@
       <c r="BE5" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="BF5" s="9" t="s">
-        <v>156</v>
+      <c r="BF5" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="BG5" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="BH5" s="3">
-        <v>1</v>
+      <c r="BH5" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="BI5" s="3">
         <v>1</v>
@@ -11507,83 +16000,86 @@
       <c r="BJ5" s="3">
         <v>1</v>
       </c>
-      <c r="BK5" s="3" t="s">
+      <c r="BK5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BL5" s="9" t="s">
+      <c r="BM5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="BM5" s="9" t="s">
+      <c r="BN5" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="BN5" s="21" t="s">
+      <c r="BO5" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="BO5" s="21" t="s">
+      <c r="BP5" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="BP5" s="3">
+      <c r="BQ5" s="3">
         <v>78554432323</v>
       </c>
-      <c r="BQ5" s="3" t="s">
+      <c r="BR5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BR5" s="3">
+      <c r="BS5" s="3">
         <v>345678</v>
       </c>
-      <c r="BS5" s="3" t="s">
+      <c r="BT5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="BT5" s="3" t="s">
+      <c r="BU5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BU5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BV5" s="1" t="s">
+      <c r="BV5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BW5" s="3" t="s">
+      <c r="BX5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BX5" s="3">
+      <c r="BY5" s="3">
         <v>123</v>
       </c>
-      <c r="BY5" s="3" t="s">
+      <c r="BZ5" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="BZ5" s="3" t="s">
+      <c r="CA5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="CA5" s="5" t="s">
+      <c r="CB5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="CB5" s="5">
-        <v>1</v>
-      </c>
-      <c r="CC5" s="5" t="s">
+      <c r="CC5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CD5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="CD5" s="3" t="s">
+      <c r="CE5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="CE5" s="19" t="s">
+      <c r="CF5" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="CF5" s="3" t="s">
+      <c r="CG5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="CG5" s="3" t="s">
+      <c r="CH5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="CH5" s="3" t="s">
+      <c r="CI5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="CI5" s="3" t="s">
+      <c r="CJ5" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:88" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>146</v>
       </c>
@@ -11675,10 +16171,10 @@
         <v>50</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="AG6" s="22" t="s">
         <v>128</v>
@@ -11755,14 +16251,14 @@
       <c r="BE6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="BF6" s="9" t="s">
-        <v>98</v>
+      <c r="BF6" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="BG6" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="BH6" s="3">
-        <v>1</v>
+      <c r="BH6" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="BI6" s="3">
         <v>1</v>
@@ -11770,83 +16266,86 @@
       <c r="BJ6" s="3">
         <v>1</v>
       </c>
-      <c r="BK6" s="3" t="s">
+      <c r="BK6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BL6" s="9" t="s">
+      <c r="BM6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="BM6" s="9" t="s">
+      <c r="BN6" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="BN6" s="21" t="s">
+      <c r="BO6" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="BO6" s="21" t="s">
+      <c r="BP6" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="BP6" s="3">
+      <c r="BQ6" s="3">
         <v>78554432323</v>
       </c>
-      <c r="BQ6" s="3" t="s">
+      <c r="BR6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BR6" s="3">
+      <c r="BS6" s="3">
         <v>345678</v>
       </c>
-      <c r="BS6" s="3" t="s">
+      <c r="BT6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="BT6" s="3" t="s">
+      <c r="BU6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BU6" s="1">
-        <v>1</v>
-      </c>
-      <c r="BV6" s="1" t="s">
+      <c r="BV6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BW6" s="3" t="s">
+      <c r="BX6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BX6" s="3">
+      <c r="BY6" s="3">
         <v>123</v>
       </c>
-      <c r="BY6" s="3" t="s">
+      <c r="BZ6" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="BZ6" s="3" t="s">
+      <c r="CA6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="CA6" s="5" t="s">
+      <c r="CB6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="CB6" s="5">
-        <v>1</v>
-      </c>
-      <c r="CC6" s="5" t="s">
+      <c r="CC6" s="5">
+        <v>1</v>
+      </c>
+      <c r="CD6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="CD6" s="3" t="s">
+      <c r="CE6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="CE6" s="19" t="s">
+      <c r="CF6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="CF6" s="3" t="s">
+      <c r="CG6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="CG6" s="3" t="s">
+      <c r="CH6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="CH6" s="3" t="s">
+      <c r="CI6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="CI6" s="3" t="s">
+      <c r="CJ6" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:88" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>147</v>
       </c>
@@ -11938,10 +16437,10 @@
         <v>50</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="AG7" s="22" t="s">
         <v>128</v>
@@ -12018,14 +16517,14 @@
       <c r="BE7" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="BF7" s="9" t="s">
-        <v>98</v>
+      <c r="BF7" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="BG7" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="BH7" s="3">
-        <v>1</v>
+      <c r="BH7" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="BI7" s="3">
         <v>1</v>
@@ -12033,89 +16532,92 @@
       <c r="BJ7" s="3">
         <v>1</v>
       </c>
-      <c r="BK7" s="3" t="s">
+      <c r="BK7" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BL7" s="9" t="s">
+      <c r="BM7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="BM7" s="9" t="s">
+      <c r="BN7" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="BN7" s="21" t="s">
+      <c r="BO7" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="BO7" s="21" t="s">
+      <c r="BP7" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="BP7" s="3">
+      <c r="BQ7" s="3">
         <v>78554432323</v>
       </c>
-      <c r="BQ7" s="3" t="s">
+      <c r="BR7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BR7" s="3">
+      <c r="BS7" s="3">
         <v>345678</v>
       </c>
-      <c r="BS7" s="3" t="s">
+      <c r="BT7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="BT7" s="3" t="s">
+      <c r="BU7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BU7" s="1">
-        <v>1</v>
-      </c>
-      <c r="BV7" s="1" t="s">
+      <c r="BV7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BW7" s="3" t="s">
+      <c r="BX7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BX7" s="3">
+      <c r="BY7" s="3">
         <v>123</v>
       </c>
-      <c r="BY7" s="3" t="s">
+      <c r="BZ7" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="BZ7" s="3" t="s">
+      <c r="CA7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="CA7" s="5" t="s">
+      <c r="CB7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="CB7" s="5">
-        <v>1</v>
-      </c>
-      <c r="CC7" s="5" t="s">
+      <c r="CC7" s="5">
+        <v>1</v>
+      </c>
+      <c r="CD7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="CD7" s="3" t="s">
+      <c r="CE7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="CE7" s="19" t="s">
+      <c r="CF7" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="CF7" s="3" t="s">
+      <c r="CG7" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="CG7" s="3" t="s">
+      <c r="CH7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="CH7" s="3" t="s">
+      <c r="CI7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="CI7" s="3" t="s">
+      <c r="CJ7" s="3" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="40">
+  <dataValidations count="41">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL15" xr:uid="{073DA54E-2ECC-492E-9B59-0D9E5F376C88}">
       <formula1>"Mumbai,India - Shivaji Terminal (BOM),Bangalore,India - Kempegowda International Airport (BLR)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK7" xr:uid="{45E92840-A91C-4AE8-BF3F-62343D06413A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2:BL7" xr:uid="{45E92840-A91C-4AE8-BF3F-62343D06413A}">
       <formula1>"Flight,Hotel,Flight+Hotel"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V7" xr:uid="{67FB40F3-8591-424F-91BA-AADC9207F94E}">
@@ -12139,13 +16641,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE7" xr:uid="{8F677A84-EE31-41FC-A164-2959D5D39F2D}">
       <formula1>"On,Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CE2:CE7 AZ2:AZ7 BC2:BC7" xr:uid="{6590DE4A-F8FE-4D3C-9549-52277B6207B9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CF2:CF7 AZ2:AZ7 BC2:BC7" xr:uid="{6590DE4A-F8FE-4D3C-9549-52277B6207B9}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CD2:CD7" xr:uid="{15B7849A-B531-4D60-A60D-A6898E4C15D1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CE2:CE7" xr:uid="{15B7849A-B531-4D60-A60D-A6898E4C15D1}">
       <formula1>"Hold and quote,Quote,Fullfillment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY7" xr:uid="{189D2FF2-3471-4584-A76C-8000AFB9BFD7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2:BZ7" xr:uid="{189D2FF2-3471-4584-A76C-8000AFB9BFD7}">
       <formula1>"Trip Request,Flight Book,Addtocart"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA7" xr:uid="{565C3A6A-5116-4B9C-9819-8BE4BC6DEA9A}">
@@ -12154,7 +16656,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U7" xr:uid="{9EA81D1A-4F22-4CCA-8C82-A330DA61C070}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR7 CA2:CA7 R2:R7" xr:uid="{E12FB017-DFA3-48AB-A0E4-FD839B5D72C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR7 CB2:CB7 R2:R7" xr:uid="{E12FB017-DFA3-48AB-A0E4-FD839B5D72C3}">
       <formula1>"Applied,NotApplied"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD7" xr:uid="{E3651111-E20F-466A-8CE2-4718948248EE}">
@@ -12166,7 +16668,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB7" xr:uid="{6FA94677-0ABA-4C89-B90E-3B6C07426970}">
       <formula1>"0,1,2,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BW2:BW7" xr:uid="{153EBACC-DF74-4429-B0A0-095A9FF9DF36}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2:BX7" xr:uid="{153EBACC-DF74-4429-B0A0-095A9FF9DF36}">
       <formula1>"Master Card,Visa"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH7" xr:uid="{A66AF195-0047-4DC0-AABE-79FED45020A9}">
@@ -12199,10 +16701,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7" xr:uid="{4B4D349B-6203-4A2A-9C77-1B769E26B866}">
       <formula1>"Saurav_at,tarun"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT7" xr:uid="{863306EE-02E7-4B05-91F0-284D53DEFC8A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU7" xr:uid="{863306EE-02E7-4B05-91F0-284D53DEFC8A}">
       <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU7" xr:uid="{D3C549EF-2FF7-4B29-A71F-5612C677E5DD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2:BV7" xr:uid="{D3C549EF-2FF7-4B29-A71F-5612C677E5DD}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7" xr:uid="{DCE5AC26-0DC2-492C-AA7E-B613FDBACC2C}">
@@ -12214,7 +16716,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7" xr:uid="{BF3F8F83-5AE8-41E6-8A4B-D368EADE4D00}">
       <formula1>"Laxmi@123,Password@123,Quad@720,Quad@721,Password@1234,Admin@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2:BG7" xr:uid="{8CA5141A-D0DB-4D93-861F-25414FF5CF02}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BG2:BH7" xr:uid="{8CA5141A-D0DB-4D93-861F-25414FF5CF02}">
       <formula1>"Economy Saver,Economy Basic,SAVER,Spice Saver,PUB,Flexi Fare,Economy,ECO STANDARD,Standard,SME FARE,Economy Fare,ECO LITE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J7" xr:uid="{E8391063-A709-4174-829E-744C99E8B338}">
@@ -12229,8 +16731,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7" xr:uid="{B1792661-3604-41B8-A48B-FD7A2BB268A7}">
       <formula1>"Amazon,Exxon"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CI2:CI7" xr:uid="{1F8C1A7C-1240-4D67-AEC7-26F04170A19A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CJ2:CJ7" xr:uid="{1F8C1A7C-1240-4D67-AEC7-26F04170A19A}">
       <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,D Divaker S,Ankur Yadav,Sachin Kumar,L K Khanal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2:BF7" xr:uid="{6122A575-69C2-421D-853A-D50AB087BA2C}">
+      <formula1>"LCC,LCC+GDS,GDS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
